--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>-0.1634715480938964</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.31761954538927</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>0.6888449045935552</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>2.771597318554297</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>3.609425886625339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.799362536952542</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>1.169339034160743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.123182427147152</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>4.818619766830312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>7.317297369612819</v>
+        <v>4.880442637054072</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>6.33415002955966</v>
+        <v>1.641301872652501</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.260319658857736</v>
+        <v>5.941867202078877</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.29595620404217</v>
+        <v>2.672847571394987</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.05262415810141086</v>
+        <v>0.292749233164491</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.191891383640931</v>
+        <v>2.181874035977249</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.459778471779982</v>
+        <v>2.032207428223742</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.283682996337033</v>
+        <v>2.13692496326825</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>3.002208343813528</v>
+        <v>2.775332754349846</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>3.141368102642828</v>
+        <v>2.200426660963761</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.951369010811856</v>
+        <v>3.565025829754953</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.814393891325029</v>
+        <v>2.446228176258058</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.473437336652374</v>
+        <v>3.444206290325491</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.371660794972863</v>
+        <v>2.496958452261078</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.6257981900360754</v>
+        <v>2.667234932970275</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.02822784966425296</v>
+        <v>2.567662999186382</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-4.251052026148628</v>
+        <v>-4.511102905979703</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.656212438505845</v>
+        <v>0.9582724917052587</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.495530390347999</v>
+        <v>1.386772772629241</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.320052410719797</v>
+        <v>0.8813242377093244</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.396072416567873</v>
+        <v>-0.9537175292835154</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-3.455348590137297</v>
+        <v>0.9049225073274991</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-3.39661216620909</v>
+        <v>-3.303819519576723</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.3369494081789437</v>
+        <v>-0.3655818470008065</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.67392582565723</v>
+        <v>-1.704805397136089</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.204607811081226</v>
+        <v>0.1460701281005727</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>-2.034793027571991</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>0.6952816881563351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>3.880748577052473</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>2.936333428994109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>2.174296999091507</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>1.706732094556851</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>4.880442637054072</v>
+        <v>-1.942476814417471</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.641301872652501</v>
+        <v>1.288975737543607</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.941867202078877</v>
+        <v>4.926006686093287</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.672847571394987</v>
+        <v>2.643411312704802</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.292749233164491</v>
+        <v>0.7614971083056643</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.181874035977249</v>
+        <v>2.348955682567344</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.032207428223742</v>
+        <v>3.004126378695804</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.13692496326825</v>
+        <v>2.358460376580607</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.775332754349846</v>
+        <v>2.384525276921168</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.200426660963761</v>
+        <v>2.349880264276161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.565025829754953</v>
+        <v>2.677874785158663</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.446228176258058</v>
+        <v>2.507403033330702</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.444206290325491</v>
+        <v>3.746278935679004</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.496958452261078</v>
+        <v>1.868164064786093</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.667234932970275</v>
+        <v>3.278383090085746</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.567662999186382</v>
+        <v>2.401026764575831</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-4.511102905979703</v>
+        <v>2.877357105987888</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.9582724917052587</v>
+        <v>2.770626214993133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.386772772629241</v>
+        <v>-0.4001895765463725</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.8813242377093244</v>
+        <v>2.524513388369543</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.9537175292835154</v>
+        <v>-2.321114556364801</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.9049225073274991</v>
+        <v>1.637366184014355</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-3.303819519576723</v>
+        <v>-0.9245282159112467</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.3655818470008065</v>
+        <v>0.9277865862836965</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.704805397136089</v>
+        <v>0.2384226118222088</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1460701281005727</v>
+        <v>0.8054161303035379</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.877357105987888</v>
+        <v>2.234912758048124</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.770626214993133</v>
+        <v>2.383575743868915</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.4001895765463725</v>
+        <v>0.08570788764348247</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.524513388369543</v>
+        <v>2.96889299227252</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.321114556364801</v>
+        <v>-1.778873321846652</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.637366184014355</v>
+        <v>2.001423525630042</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.9245282159112467</v>
+        <v>-0.3329345025757879</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.9277865862836965</v>
+        <v>1.343930035002616</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.2384226118222088</v>
+        <v>0.2722169029249821</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8054161303035379</v>
+        <v>0.9256757278928385</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_summer.xlsx
@@ -445,13 +445,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-2.034793027571991</v>
+        <v>-2.034793027572002</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.6952816881563351</v>
+        <v>0.6952816881563129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>3.880748577052473</v>
+        <v>3.880748577052495</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.936333428994109</v>
+        <v>2.936333428994153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>2.174296999091507</v>
+        <v>2.174296999091485</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.706732094556851</v>
+        <v>1.706732094556873</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-1.942476814417471</v>
+        <v>-1.942476814417493</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.288975737543607</v>
+        <v>1.288975737543674</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -530,7 +530,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.7614971083056643</v>
+        <v>0.7614971083056421</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -547,7 +547,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>3.004126378695804</v>
+        <v>3.004126378695826</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.384525276921168</v>
+        <v>2.38452527692119</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -581,7 +581,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.677874785158663</v>
+        <v>2.677874785158707</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -598,7 +598,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.746278935679004</v>
+        <v>3.746278935679026</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -632,7 +632,7 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.234912758048124</v>
+        <v>2.234912758048102</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.08570788764348247</v>
+        <v>0.08570788764350468</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.96889299227252</v>
+        <v>2.968892992272543</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.778873321846652</v>
+        <v>-1.778873321846641</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.001423525630042</v>
+        <v>2.001423525630064</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,7 +683,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.3329345025757879</v>
+        <v>-0.3329345025757768</v>
       </c>
       <c r="D18">
         <v>2025</v>
